--- a/NformTester/NformTester/Keywordscripts/600.30.30.20_AddAnAreaInTheTreeForExistingView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.20_AddAnAreaInTheTreeForExistingView.xlsx
@@ -1213,7 +1213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7535" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7538" uniqueCount="837">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3678,10 +3678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\user\samples\floor1.png"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Liebert"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3778,6 +3774,10 @@
   <si>
     <t>$Delete_File_Path$</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_Image_File_Name$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4752,10 +4752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4773,10 +4773,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>821</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>822</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>757</v>
@@ -4818,10 +4818,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="16" t="s">
+        <v>822</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>823</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>824</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -4843,33 +4843,27 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="16" t="s">
+        <v>824</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>825</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>826</v>
-      </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>780</v>
+        <v>833</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>783</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4878,38 +4872,42 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>828</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+        <v>764</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B5" s="20">
         <v>41752</v>
@@ -4917,12 +4915,18 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="D5" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4932,89 +4936,85 @@
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>831</v>
-      </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>792</v>
-      </c>
+      <c r="D6" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="N6" s="9"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:15">
       <c r="A7" s="16" t="s">
         <v>765</v>
       </c>
       <c r="B7" s="18">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>792</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="8"/>
+      <c r="H7" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="N7" s="9"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="16" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="F8" s="11">
-        <v>2</v>
-      </c>
+      <c r="D8" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -5027,24 +5027,22 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="16" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>833</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -5067,22 +5065,22 @@
       <c r="D10" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
@@ -5095,10 +5093,10 @@
         <v>785</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>2</v>
@@ -5124,17 +5122,15 @@
         <v>785</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>799</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -5158,13 +5154,13 @@
         <v>626</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -5189,13 +5185,13 @@
         <v>626</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>628</v>
+        <v>255</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>807</v>
+        <v>4</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>798</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -5220,12 +5216,14 @@
         <v>626</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -5249,7 +5247,7 @@
         <v>626</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>183</v>
+        <v>633</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>2</v>
@@ -5275,17 +5273,15 @@
         <v>785</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>819</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -5309,13 +5305,13 @@
         <v>635</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -5340,13 +5336,13 @@
         <v>635</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>636</v>
+        <v>255</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -5373,12 +5369,14 @@
         <v>635</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>303</v>
+        <v>636</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>836</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -5399,15 +5397,15 @@
         <v>785</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -5431,14 +5429,12 @@
         <v>555</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>812</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" s="7"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -5447,7 +5443,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25">
+    <row r="23" spans="1:15">
       <c r="C23" s="3">
         <v>22</v>
       </c>
@@ -5458,13 +5454,13 @@
         <v>555</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>813</v>
+      <c r="H23" s="7" t="s">
+        <v>811</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -5474,7 +5470,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="14.25">
       <c r="C24" s="3">
         <v>23</v>
       </c>
@@ -5485,12 +5481,14 @@
         <v>555</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>812</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -5510,7 +5508,7 @@
         <v>555</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>17</v>
+        <v>556</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>2</v>
@@ -5532,7 +5530,7 @@
         <v>785</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>17</v>
@@ -5557,7 +5555,7 @@
         <v>785</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>17</v>
@@ -5582,10 +5580,10 @@
         <v>785</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>2</v>
@@ -5599,16 +5597,22 @@
       <c r="N28" s="12"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="15">
+    <row r="29" spans="1:15">
       <c r="C29" s="3">
         <v>28</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="D29" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -5618,54 +5622,48 @@
       <c r="N29" s="12"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="15">
       <c r="C30" s="3">
         <v>29</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="8"/>
+      <c r="D30" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="12"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15">
       <c r="C31" s="3">
         <v>30</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="D31" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="12"/>
+      <c r="F31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="8"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15">
@@ -5676,17 +5674,15 @@
         <v>785</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>799</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -5709,7 +5705,7 @@
         <v>624</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>799</v>
@@ -5733,13 +5729,15 @@
         <v>623</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>174</v>
+        <v>624</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
@@ -5755,20 +5753,16 @@
         <v>785</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>627</v>
+        <v>174</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="7">
-        <v>2</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>819</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
@@ -5790,13 +5784,13 @@
         <v>627</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
@@ -5816,13 +5810,17 @@
         <v>626</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>174</v>
+        <v>627</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>818</v>
+      </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
@@ -5838,20 +5836,16 @@
         <v>785</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>819</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -5870,16 +5864,16 @@
         <v>635</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
@@ -5899,22 +5893,22 @@
         <v>635</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>636</v>
+        <v>255</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="8"/>
+        <v>810</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="12"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="3:15">
@@ -5928,18 +5922,22 @@
         <v>635</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>303</v>
+        <v>636</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="8"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="3:15">
@@ -5950,17 +5948,15 @@
         <v>785</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>558</v>
+        <v>303</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>812</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -5979,19 +5975,21 @@
       <c r="E43" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="8"/>
+      <c r="F43" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="12"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="3:15">
@@ -6002,21 +6000,21 @@
         <v>785</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="F44" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="12"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="8"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="3:15">
@@ -6027,16 +6025,16 @@
         <v>785</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="G45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
@@ -6052,7 +6050,7 @@
         <v>785</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>99</v>
@@ -6060,8 +6058,8 @@
       <c r="G46" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
@@ -6074,17 +6072,19 @@
         <v>46</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>817</v>
+        <v>785</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>795</v>
-      </c>
-      <c r="F47" s="11">
-        <v>2</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+        <v>623</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -6092,18 +6092,22 @@
       <c r="N47" s="12"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="3:15" ht="15">
+    <row r="48" spans="3:15">
       <c r="C48" s="3">
         <v>47</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="D48" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="F48" s="11">
+        <v>2</v>
+      </c>
       <c r="G48" s="11"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="11"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -6111,54 +6115,48 @@
       <c r="N48" s="12"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="3:15">
+    <row r="49" spans="3:15" ht="15">
       <c r="C49" s="3">
         <v>48</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="8"/>
+      <c r="D49" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="12"/>
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="3:15">
       <c r="C50" s="3">
         <v>49</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="D50" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="12"/>
+      <c r="F50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="8"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="3:15">
@@ -6169,17 +6167,15 @@
         <v>785</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>799</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -6199,13 +6195,15 @@
         <v>623</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>174</v>
+        <v>624</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
@@ -6221,10 +6219,10 @@
         <v>785</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>2</v>
@@ -6246,18 +6244,16 @@
         <v>785</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="I54" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
@@ -6276,13 +6272,13 @@
         <v>635</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
@@ -6303,13 +6299,13 @@
         <v>635</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>636</v>
+        <v>255</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -6330,12 +6326,14 @@
         <v>635</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>303</v>
+        <v>636</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>836</v>
+      </c>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -6352,15 +6350,15 @@
         <v>785</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="H58" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H58" s="3"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
@@ -6380,14 +6378,12 @@
         <v>555</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>812</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="H59" s="7"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
@@ -6396,7 +6392,7 @@
       <c r="N59" s="12"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="3:15" ht="14.25">
+    <row r="60" spans="3:15">
       <c r="C60" s="3">
         <v>59</v>
       </c>
@@ -6407,13 +6403,13 @@
         <v>555</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="14" t="s">
-        <v>813</v>
+      <c r="H60" s="7" t="s">
+        <v>811</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
@@ -6423,7 +6419,7 @@
       <c r="N60" s="12"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="3:15">
+    <row r="61" spans="3:15" ht="14.25">
       <c r="C61" s="3">
         <v>60</v>
       </c>
@@ -6434,12 +6430,14 @@
         <v>555</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>812</v>
+      </c>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
@@ -6459,7 +6457,7 @@
         <v>555</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>17</v>
+        <v>556</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>2</v>
@@ -6481,15 +6479,15 @@
         <v>785</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="11"/>
+      <c r="G63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="7"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -6503,17 +6501,19 @@
         <v>63</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>817</v>
+        <v>785</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>795</v>
-      </c>
-      <c r="F64" s="11">
-        <v>2</v>
-      </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
+        <v>635</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
@@ -6526,17 +6526,15 @@
         <v>64</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>785</v>
+        <v>816</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="F65" s="11">
+        <v>2</v>
+      </c>
+      <c r="G65" s="11"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="11"/>
@@ -6560,7 +6558,7 @@
         <v>17</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -6579,16 +6577,16 @@
         <v>785</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
@@ -6604,7 +6602,7 @@
         <v>785</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>99</v>
@@ -6612,8 +6610,8 @@
       <c r="G68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
@@ -6629,7 +6627,7 @@
         <v>785</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>99</v>
@@ -6646,73 +6644,73 @@
       <c r="N69" s="12"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="3:15" ht="15">
+    <row r="70" spans="3:15">
       <c r="C70" s="3">
         <v>69</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="D70" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="5"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="12"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="3:15">
+    <row r="71" spans="3:15" ht="15">
       <c r="C71" s="3">
         <v>70</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="D71" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="8"/>
+      <c r="N71" s="5"/>
       <c r="O71" s="2"/>
     </row>
     <row r="72" spans="3:15">
       <c r="C72" s="3">
         <v>71</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E72" s="11" t="s">
+      <c r="D72" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="12"/>
+      <c r="F72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="8"/>
       <c r="O72" s="2"/>
     </row>
     <row r="73" spans="3:15">
@@ -6723,17 +6721,15 @@
         <v>785</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>799</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
@@ -6753,13 +6749,15 @@
         <v>623</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>184</v>
+        <v>624</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
@@ -6778,7 +6776,7 @@
         <v>623</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>2</v>
@@ -6795,25 +6793,25 @@
       <c r="C76" s="3">
         <v>75</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="E76" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="8"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="12"/>
     </row>
     <row r="77" spans="3:15">
       <c r="C77" s="3">
@@ -6826,7 +6824,7 @@
         <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>2</v>
@@ -6844,28 +6842,26 @@
         <v>77</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>801</v>
+        <v>19</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>578</v>
+        <v>78</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="I78" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="3:15" ht="14.25">
+    <row r="79" spans="3:15">
       <c r="C79" s="3">
         <v>78</v>
       </c>
@@ -6876,12 +6872,14 @@
         <v>801</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>184</v>
+        <v>578</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>797</v>
+      </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -6889,23 +6887,23 @@
       <c r="M79" s="3"/>
       <c r="N79" s="8"/>
     </row>
-    <row r="80" spans="3:15">
+    <row r="80" spans="3:15" ht="14.25">
       <c r="C80" s="3">
         <v>79</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>585</v>
+      <c r="E80" s="7" t="s">
+        <v>801</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="7"/>
+      <c r="H80" s="13"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -6920,17 +6918,17 @@
       <c r="D81" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>801</v>
+      <c r="E81" s="3" t="s">
+        <v>585</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
+      <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -6942,15 +6940,17 @@
         <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>835</v>
+        <v>800</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>801</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="G82" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="3"/>
@@ -6959,9 +6959,31 @@
       <c r="M82" s="3"/>
       <c r="N82" s="8"/>
     </row>
+    <row r="83" spans="3:14">
+      <c r="C83" s="3">
+        <v>82</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N82">
+  <conditionalFormatting sqref="N2:N83">
     <cfRule type="cellIs" dxfId="1" priority="67" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6970,22 +6992,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G77 G79:G82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G80:G83 G2:G78">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D82 D8:D28 D49:D69 D30:D47 D3:D4 D71:D77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83 D9:D29 D50:D70 D31:D48 D3:D5 D72:D78">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F82">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E83">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H23" r:id="rId1"/>
-    <hyperlink ref="H60" r:id="rId2"/>
+    <hyperlink ref="H24" r:id="rId1"/>
+    <hyperlink ref="H61" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/NformTester/NformTester/Keywordscripts/600.30.30.20_AddAnAreaInTheTreeForExistingView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.20_AddAnAreaInTheTreeForExistingView.xlsx
@@ -3660,14 +3660,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Liebert GXT UPS/WebCard"</t>
   </si>
   <si>
@@ -3777,6 +3769,14 @@
   </si>
   <si>
     <t>$Sys_Image_File_Name$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4754,8 +4754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4773,10 +4773,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>757</v>
@@ -4818,10 +4818,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -4843,22 +4843,22 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>833</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>835</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4872,10 +4872,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B5" s="20">
         <v>41752</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -4984,27 +4984,27 @@
       <c r="H7" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>807</v>
+      <c r="I7" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>836</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>794</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="16" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="3">
@@ -5027,14 +5027,14 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="16" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>795</v>
@@ -5221,8 +5221,8 @@
       <c r="G15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>807</v>
+      <c r="H15" s="11" t="s">
+        <v>836</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -5311,7 +5311,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -5342,7 +5342,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -5375,7 +5375,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -5460,7 +5460,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -5487,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -5627,7 +5627,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="11"/>
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
@@ -5819,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -5870,10 +5870,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
@@ -5899,10 +5899,10 @@
         <v>7</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
@@ -5928,10 +5928,10 @@
         <v>7</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5982,7 +5982,7 @@
         <v>59</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="11"/>
@@ -6097,7 +6097,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>795</v>
@@ -6120,7 +6120,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -6278,7 +6278,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
@@ -6305,7 +6305,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -6332,7 +6332,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
@@ -6381,7 +6381,7 @@
         <v>183</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="11"/>
@@ -6409,7 +6409,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
@@ -6436,7 +6436,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -6526,7 +6526,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>795</v>
@@ -6964,13 +6964,13 @@
         <v>82</v>
       </c>
       <c r="D83" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>833</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>835</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="7"/>
